--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:46:20+00:00</t>
+    <t>2023-02-18T10:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:13:11+00:00</t>
+    <t>2023-02-18T11:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:17:38+00:00</t>
+    <t>2023-02-18T14:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:27:51+00:00</t>
+    <t>2023-02-21T11:45:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:45:55+00:00</t>
+    <t>2023-02-21T13:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T13:35:57+00:00</t>
+    <t>2023-02-21T14:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A list of reasons associated with the service request for the lab order</t>
+    <t>A list of reasons associated with the service request for the lab order.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:10:21+00:00</t>
+    <t>2023-02-22T13:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T13:02:41+00:00</t>
+    <t>2023-02-22T15:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:15:41+00:00</t>
+    <t>2023-02-22T15:26:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:26:08+00:00</t>
+    <t>2023-02-22T15:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:39:39+00:00</t>
+    <t>2023-02-23T08:27:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:27:18+00:00</t>
+    <t>2023-02-23T13:59:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T13:59:47+00:00</t>
+    <t>2023-02-23T14:48:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T14:48:28+00:00</t>
+    <t>2023-02-24T11:38:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T11:38:09+00:00</t>
+    <t>2023-02-24T14:30:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:30:46+00:00</t>
+    <t>2023-02-27T07:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:31:33+00:00</t>
+    <t>2023-02-27T08:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:19:52+00:00</t>
+    <t>2023-02-27T11:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:03:37+00:00</t>
+    <t>2023-02-27T11:43:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:43:01+00:00</t>
+    <t>2023-02-28T11:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:30:20+00:00</t>
+    <t>2023-03-01T12:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:32:05+00:00</t>
+    <t>2023-03-01T13:09:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:09:29+00:00</t>
+    <t>2023-03-02T06:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:53+00:00</t>
+    <t>2023-03-02T07:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T07:03:01+00:00</t>
+    <t>2023-03-02T10:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T10:01:05+00:00</t>
+    <t>2023-03-02T11:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:57:08+00:00</t>
+    <t>2023-03-02T16:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:08:14+00:00</t>
+    <t>2023-03-03T12:35:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:35:01+00:00</t>
+    <t>2023-03-03T12:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:56:42+00:00</t>
+    <t>2023-03-03T14:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:58:49+00:00</t>
+    <t>2023-03-03T15:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:51:33+00:00</t>
+    <t>2023-03-04T08:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:23:50+00:00</t>
+    <t>2023-03-05T11:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:45:33+00:00</t>
+    <t>2023-03-06T07:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:25:44+00:00</t>
+    <t>2023-03-06T13:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:23:19+00:00</t>
+    <t>2023-03-06T13:58:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:58:50+00:00</t>
+    <t>2023-03-07T12:18:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:18:55+00:00</t>
+    <t>2023-03-07T17:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:18:24+00:00</t>
+    <t>2023-03-08T14:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:44:18+00:00</t>
+    <t>2023-03-08T15:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:59:39+00:00</t>
+    <t>2023-03-09T11:23:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/master/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T11:23:43+00:00</t>
+    <t>2023-04-04T11:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
